--- a/2025-03-03_o3-mini_feedback_sheets/overall_spec/CREST syndrome with Type 2 Achalasia_spec_overall.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/overall_spec/CREST syndrome with Type 2 Achalasia_spec_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon reported is present.</t>
+          <t>Raynauds phenomenon reported is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a classic and specific vascular manifestation in CREST syndrome, strongly supporting the diagnosis.</t>
+          <t>Raynaud's phenomenon is a classic and specific feature of CREST syndrome, strongly supporting the diagnosis when present.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hand thickness reported is absent.</t>
+          <t>Hand thickness reported is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lack of hand thickening argues against sclerodactyly, a typical cutaneous manifestation of CREST syndrome.</t>
+          <t>The absence of hand skin thickening (sclerodactyly) is a negative finding for CREST syndrome, as skin changes are a central component of the syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias reported is present.</t>
+          <t>Telangiectasias reported is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias are a hallmark of CREST syndrome and occur with high specificity in patients with limited scleroderma.</t>
+          <t>Telangiectasias are another hallmark of CREST syndrome and their presence substantially increases the likelihood of the syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Finger ulcers reported is absent.</t>
+          <t>Finger ulcers reported is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Digital ulcers are common in CREST-related vasculopathy; their absence weakens the clinical picture for CREST syndrome.</t>
+          <t>Digital tip ulcers are often seen in CREST syndrome; their absence detracts from the overall systemic sclerosis picture.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Difficulty swallowing liquids is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronic reflux symptoms support esophageal dysmotility, a key component of CREST syndrome and its association with Type 2 Achalasia.</t>
+          <t>Dysphagia, especially with liquids, is characteristic of Type 2 Achalasia and supports the specific esophageal dysmotility seen in CREST-related involvement.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Multiple symmetric joints hurt is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Although not the most specific feature, a hoarse voice can be seen in advanced esophageal involvement and its absence may slightly detract from the full spectrum of CREST manifestations.</t>
+          <t>While joint pain can occur, the absence of widespread symmetric joint involvement reduces support for a more generalized systemic connective tissue disease that can accompany scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Long-standing heartburn and long-standing reflux (duration of years) with antacids no longer providing relief is present</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysphagia to liquids is a core feature of esophageal dysmotility seen in Type 2 Achalasia, thus supporting the combined CREST syndrome with achalasia diagnosis.</t>
+          <t>Chronic gastroesophageal reflux symptoms not responsive to antacids indicate significant esophageal dysfunction, aligning with the expected presentation in CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Joint swelling reported is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A chronic cough can be a consequence of microaspirations in patients with significant reflux and esophageal dysmotility; its absence may subtly oppose a more advanced stage of CREST with esophageal involvement.</t>
+          <t>Lack of joint swelling further argues against systemic scleroderma manifestations typically seen with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Weight loss reported is present</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Loss of response to antacids implies a mechanical or motility issue rather than simple acid reflux, fitting with esophageal involvement in CREST syndrome with Type 2 Achalasia.</t>
+          <t>Weight loss in the context of dysphagia and chronic reflux points toward significant esophageal impairment, which is consistent with Type 2 Achalasia seen in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Globus sensation is absent.</t>
+          <t>Enlargement of knuckles, finger deformities, or deviation of fingers reported is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While not highly specific, the absence of a sensation of a lump in the throat (globus sensation) may be considered a less supportive finding given that many patients with esophageal dysmotility report it.</t>
+          <t>The absence of characteristic hand deformities and knuckle changes reduces the overall evidence for significant scleroderma-related skin and musculoskeletal changes.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>takes amlodipine</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amlodipine, a calcium channel blocker, is often used in the management of Raynaud's phenomenon, which is a component of CREST syndrome. This supports the likelihood of underlying CREST syndrome.</t>
+          <t>CREST syndrome (a limited cutaneous form of systemic sclerosis) is statistically more common in females, so the patient's gender increases the pretest probability of the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>Alcohol use disorder is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation therapy is a known cause of secondary achalasia, so its absence argues against an iatrogenic or radiation-induced mechanism, though it does not directly argue against CREST syndrome.</t>
+          <t>While not a direct marker for CREST syndrome, the absence of alcohol use disorder reduces the probability of other causes of dysphagia and esophageal dysfunction that might mimic achalasia; however, this indirectly works against a non-metabolic/autoimmune origin of the symptoms.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>middle age is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CREST syndrome (limited cutaneous systemic sclerosis) has a higher prevalence in females, making this demographic detail supportive of the diagnosis.</t>
+          <t>Patients with CREST syndrome are often middle‐aged when they present with symptoms, which supports the likelihood of the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>absence of alcohol use disorder</t>
+          <t>Nicotine dependence is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Alcohol use disorder has been linked to various esophageal motility disorders; its absence decreases the likelihood of non-ischemic, alcohol-related esophageal dysfunction, which might otherwise mimic Type 2 Achalasia.</t>
+          <t>The lack of nicotine dependence further decreases the likelihood of tobacco‐related vascular and esophageal pathologies, which are alternative explanations for the patient’s presentation, thereby indirectly arguing against a vascular etiology unrelated to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>middle age</t>
+          <t>takes amlodipine is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The typical demographic for CREST syndrome is middle-aged individuals; thus, this finding supports the diagnosis.</t>
+          <t>Amlodipine is a calcium channel blocker frequently used to manage vascular symptoms such as Raynaud’s phenomenon, commonly seen in CREST syndrome. Its use may indirectly suggest treatment of such vascular dysregulation.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>absence of nicotine dependence</t>
+          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nicotine dependence often contributes to vascular and motility pathologies. Its absence makes alternative causes for esophageal dysfunction less likely, thus indirectly arguing against other secondary causes separate from CREST.</t>
+          <t>Radiation can cause esophageal dysmotility mimicking achalasia. Its absence makes an alternative, acquired cause of esophageal dysfunction less likely, thus the negative finding here somewhat reduces the differential for secondary achalasia unrelated to CREST; however, in the context of CREST with Type 2 Achalasia, it does not add supportive evidence for an autoimmune process.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>absence of cardiovascular risk factors such as previously diagnosed Coronary Artery Disease</t>
+          <t>Previously diagnosed Coronary Artery Disease is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome often present without atherosclerotic cardiovascular disease, so the absence of a history of coronary artery disease lends some specificity towards CREST rather than atherosclerotic conditions that might mimic similar issues.</t>
+          <t>The lack of coronary artery disease excludes other common cardiovascular causes of similar symptoms and makes a non-atherosclerotic vasculopathy (as seen in CREST syndrome) a more likely explanation.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>absence of other vascular comorbidities such as previously diagnosed Hyperlipidemia</t>
+          <t>Previously diagnosed Hyperlipidemia is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is a common risk factor in many vascular conditions. Its absence reduces the likelihood of atherosclerotic based vascular dysfunction that could lead to achalasia, thereby indirectly arguing against some differential diagnoses; however, this finding does not strongly exclude CREST.</t>
+          <t>The absence of hyperlipidemia suggests that atherosclerotic vascular disease is less likely, which while supporting a non-atherosclerotic etiology, also indicates a lack of typical vascular risk factors that sometimes coexist with other systemic conditions. In this context the expected vascular dysregulation seen in CREST is not accompanied by atherosclerotic risk factors.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>absence of metabolic conditions such as type 2 diabetes and obesity</t>
+          <t>Absence of metabolic comorbidities (type 2 diabetes, obesity) as noted by their absence</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The lack of common metabolic comorbidities, which could account for esophageal motility issues via alternative pathways, further isolates the etiology towards a connective tissue disorder like CREST syndrome with Type 2 Achalasia.</t>
+          <t>The absence of metabolic syndrome components diminishes the likelihood of alternative causes of dysphagia and vascular issues, thus supporting a diagnosis like CREST syndrome with Type 2 Achalasia where autoimmune and fibrotic processes rather than metabolic factors are primary.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>absence of prior myocardial infarction</t>
+          <t>Previously diagnosed Coronary Artery Disease, type 2 diabetes, obesity, and prior stroke are absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A history of myocardial infarction can indicate significant cardiovascular disease contributing to secondary esophageal dysmotility. Its absence suggests that an alternative etiology (like CREST syndrome) should be more strongly considered, yet it also argues against concurrent significant vascular disease.</t>
+          <t>The absence of these common cardiovascular and metabolic comorbidities indicates that the patient does not have the risk profile expected for atherosclerotic or metabolic causes of esophageal motility disorders. This composite negative evidence, while indirectly favoring CREST’s non-atherosclerotic process, also argues against a broader systemic vascular pathology that might mimic CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recent social stress is present</t>
+          <t>Prior tobacco use is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emotional stress has been implicated as a potential trigger or exacerbating factor in autoimmune diseases, including CREST syndrome, and might contribute to esophageal dysmotility seen in Type 2 Achalasia.</t>
+          <t>Prior tobacco use has been associated with a heightened risk of developing autoimmune phenomena, which may include connective tissue disorders like CREST syndrome; its presence is considered supportive, even though the association is modest.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -779,41 +779,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A positive family history of autoimmune conditions such as rheumatoid arthritis could increase the pretest probability of autoimmune phenomena; its absence reduces supportive familial evidence for an autoimmune process like CREST syndrome.</t>
+          <t>The absence of a family history of autoimmune diseases like rheumatoid arthritis weakens the support for a strong genetic predisposition to autoimmune conditions, which can be a contributing factor in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present</t>
+          <t>Family history of myocardial infarction in father is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Although tobacco use is more widely known as a risk factor for other disorders, a history of tobacco exposure may be associated with vascular and immunologic alterations that parallel the pathophysiologic processes in CREST syndrome.</t>
+          <t>A family history of cardiovascular events like myocardial infarction may reflect shared genetic or vascular risk factors; in CREST syndrome, microvascular changes are prominent, and this familial vascular predisposition can be viewed as indirectly supportive.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent</t>
+          <t>Current tobacco use is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Some esophageal motility disorders can be paraneoplastic or have associations with cancer; the absence of any family history of cancer makes such paraneoplastic processes less likely, thereby arguing against a secondary process that might mimic CREST with Type 2 Achalasia.</t>
+          <t>While prior tobacco use may be linked with autoimmune risks, the lack of current tobacco use reduces ongoing exposure to pro-inflammatory stimuli that could exacerbate or trigger autoimmune phenomena; this absence is considered slightly against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father is present</t>
+          <t>Recent social stress is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of coronary artery disease in a first‐degree relative can be seen in settings of vascular dysfunction, which may overlap with the vascular abnormalities encountered in the CREST spectrum.</t>
+          <t>Social stress is known to potentially trigger or exacerbate autoimmune conditions. Its presence may contribute to disease onset or flare in susceptible individuals, lending modest support to an autoimmune disorder such as CREST syndrome with associated esophageal manifestations.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Travel can sometimes expose patients to infectious agents or novel environmental triggers that may lead to secondary esophageal dysmotility; the lack of recent travel reduces the likelihood of an alternative, non-autoimmune etiology.</t>
+          <t>The absence of recent travel reduces the possibility of encountering certain infectious agents that might trigger secondary esophageal dysmotility, thus indirectly arguing against secondary causes that might mimic CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of alcohol use removes a potential confounder that might independently contribute to motility issues in the esophagus and supports a non-lifestyle, potentially autoimmune etiology such as CREST syndrome.</t>
+          <t>The absence of alcohol use removes a potential confounding factor for esophageal dysmotility and other gastrointestinal symptoms, thereby indirectly supporting a primary autoimmune process over alternative etiologies.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -845,29 +845,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A recent medical procedure might have led to iatrogenic complications that mimic features of esophageal dysmotility; its absence argues against an iatrogenic or secondary cause for the motility disorder.</t>
+          <t>Without a recent medical procedure, the likelihood of iatrogenic causes for esophageal dysmotility (which could mimic Type 2 Achalasia) decreases; this argues against a secondary, procedure-related etiology and thus slightly weighs against the CREST syndrome scenario if one were expecting multifactorial triggers.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent</t>
+          <t>Family history of cancer is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of ongoing tobacco exposure suggests that current vascular insult is less likely due to direct toxic effects, therefore pointing more toward an intrinsic immunologic mechanism like that seen in CREST syndrome.</t>
+          <t>An absence of a family history of cancer decreases the likelihood of underlying paraneoplastic causes for esophageal motility disorders, thereby indirectly favoring a diagnosis of a primary autoimmune condition such as CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent</t>
+          <t>Gestational complications with prior pregnancy are absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Autoimmune conditions, including limited scleroderma variants such as CREST, can sometimes be associated with adverse gestational outcomes; the absence of such complications can be considered as evidence against an underlying autoimmune process.</t>
+          <t>The absence of gestational complications limits the evidence of systemic involvement that sometimes accompanies autoimmune disorders, reducing one potential piece of supportive evidence for a multisystem disorder like CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Telangiectasias on exam is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias are a recognized feature of CREST syndrome, indicating microvascular abnormalities which support a scleroderma spectrum disorder that may be associated with esophageal dysmotility, such as Type 2 Achalasia.</t>
+          <t>Telangiectasias are one of the classic features of CREST syndrome (the 'T' in CREST), and their presence is highly specific for the disease even though other features may be lacking.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynauds phenomennon on exam is absent.</t>
+          <t>Raynauds phenomennon on exam is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Raynaud’s phenomenon is one of the hallmark features of CREST syndrome; its absence strongly argues against the diagnosis since it is highly sensitive for the microvascular changes associated with the syndrome.</t>
+          <t>Raynaud's phenomenon is one of the hallmarks of CREST syndrome (the 'R' in CREST); its absence is a significant argument against the CREST component of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>Weight loss on vitals is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can occur in patients with achalasia due to dysphagia and malabsorption, bolstering the possibility of esophageal motility issues in the context of CREST syndrome.</t>
+          <t>Weight loss can be an indicator of esophageal dysmotility leading to decreased nutritional intake, a finding associated with type 2 achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hand thickening observed is absent.</t>
+          <t>Hand thickening observed is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sclerodactyly, or hand thickening, is a key feature of CREST syndrome; its absence is a strong indicator against a scleroderma spectrum disorder.</t>
+          <t>Hand thickening is representative of sclerodactyly (the 'S' in CREST) and its absence argues against the presence of the fibrotic skin changes typical in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Absence of obesity by vital signs.</t>
+          <t>Epigastric pain on palpation is absent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The lack of obesity complements the finding of weight loss, supporting a catabolic state or impaired nutrition as seen in chronic esophageal dysfunction, such as that seen in Type 2 Achalasia.</t>
+          <t>The absence of epigastric pain helps differentiate esophageal dysmotility (as seen in achalasia) from other gastrointestinal disorders like peptic ulcer disease or reflux, supporting type 2 achalasia as part of the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Finger ulcers observed is absent.</t>
+          <t>Finger ulcers observed is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Digital tip ulcers commonly occur in CREST syndrome as a result of vascular compromise; the absence of finger ulcers is evidence against the diagnosis.</t>
+          <t>Finger ulcers can be a sequela of vascular compromise seen in CREST syndrome; their absence diminishes support for vascular involvement that is characteristic of the syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of epigastric pain on palpation.</t>
+          <t>Hoarse voice observed is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain may help differentiate achalasia-related dysphagia from other gastrointestinal causes of weight loss or pain, indirectly supporting a motility disorder like Type 2 Achalasia.</t>
+          <t>The absence of a hoarse voice helps exclude laryngeal involvement from other conditions, indirectly supporting type 2 achalasia in the context of CREST syndrome by reducing diagnostic alternatives.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>Joint swelling observed is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Although joint swelling is a less specific finding, its absence further limits the supporting clinical signs of a systemic connective tissue disorder such as CREST syndrome.</t>
+          <t>Although joint swelling is not a classic feature of CREST syndrome, its absence reduces the likelihood of associated connective tissue inflammation that might otherwise support a systemic process.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of hoarse voice observed.</t>
+          <t>Cough observed is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Although a hoarse voice can be seen in other disorders, its absence helps narrow the differential toward CREST syndrome with Type 2 Achalasia, rather than other conditions that affect the upper aerodigestive tract.</t>
+          <t>The absence of cough reduces the likelihood of alternative respiratory or reflux-related complications, reinforcing that esophageal dysmotility (with resultant weight loss) is more likely due to type 2 achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Red eye observed is absent.</t>
+          <t>Rheumatoid nodules is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While not a classic feature, subtle vascular changes in the eye can be seen in systemic sclerosis; the absence of red eye removes one supportive vascular finding seen in such conditions.</t>
+          <t>Even though rheumatoid nodules are more typical of rheumatoid arthritis, their absence here removes an overlapping connective tissue finding that might have indirectly supported a multisystem connective tissue disease.</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>Hyperlipidemia on lab testing is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>In CREST syndrome, the limited cutaneous form is less frequently associated with interstitial lung disease compared with diffuse systemic sclerosis, so the absence of ILD can be seen as more consistent with the CREST variant that includes Type 2 Achalasia.</t>
+          <t>Although non‐specific, its presence is one of the few positive test findings, and in the absence of more specific markers, it leaves the possibility open for associated metabolic features that can be seen with systemic disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,63 +1081,63 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A strong positive ANA is typically found in patients with systemic sclerosis and CREST syndrome. Its absence is strong evidence against an autoimmune process underlying CREST syndrome.</t>
+          <t>A strong positive ANA is a highly sensitive and specific marker for systemic sclerosis. Its absence significantly lowers the likelihood of having CREST syndrome, which typically shows a positive ANA, even if at lower titers.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>CT shows ILD is absent</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The absence of a widened mediastinum on chest X-ray helps rule out alternative thoracic pathologies that could mimic features of CREST syndrome with Type 2 Achalasia, indirectly supporting the diagnosis by exclusion.</t>
+          <t>In CREST syndrome (a limited form of systemic sclerosis), interstitial lung disease is less common. Its absence is more consistent with CREST than with the diffuse form that involves significant pulmonary involvement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>CT shows ILD is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patients with significant esophageal dysmotility, as seen in CREST syndrome with Type 2 Achalasia, often manifest aspiration on a Modified Barium Swallow. Its absence suggests that esophageal involvement may not be advanced enough to support the diagnosis.</t>
+          <t>Even though ILD is more commonly seen in diffuse systemic sclerosis, its absence argues against systemic involvement that can sometimes be an overlapping feature in systemic sclerosis, including CREST variant complications.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>An absent widened mediastinum excludes other thoracic pathologies that can mimic esophageal motility problems, indirectly supporting a diagnosis confined to a CREST subtype with achalasia.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>MBS shows aspiration is absent</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Aspiration is a known complication in advanced esophageal dysmotility. Its absence may suggest an earlier or less severe esophageal involvement which can be seen in CREST syndrome with Type 2 Achalasia.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CT shows ILD is absent</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>While limited cutaneous systemic sclerosis (CREST) is less associated with ILD, some degree of pulmonary involvement can still be seen. Absence of ILD may be considered against the full spectrum of systemic findings expected in CREST syndrome.</t>
+          <t>In the context of advanced esophageal motility disorders such as achalasia, aspiration is a known complication. Its absence may indicate that the esophageal dysfunction is not pronounced, reducing evidence for Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>MBS shows aspiration is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not specific, the presence of hyperlipidemia can be observed in patients with systemic conditions and may coexist with CREST syndrome. In the absence of more specific markers, its presence is noted.</t>
+          <t>The absence of aspiration on a Modified Barium Swallow study is compatible with early or typical Type 2 Achalasia seen in CREST syndrome, where severe esophageal dysfunction with complications has not yet developed.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A widened mediastinum may be observed in other thoracic processes that can confound the clinical picture of autoimmune disorders. Its absence in this case reduces ancillary evidence that might otherwise support a systemic disease process like CREST syndrome.</t>
+          <t>A widened mediastinum in the setting of achalasia might point toward complications such as megaesophagus. Its absence, while not strongly against, reduces supportive evidence for an advanced or classic presentation of Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Although a positive antinuclear antibody (ANA) test is common in autoimmune disease, some cases of CREST syndrome with esophageal dysmotility (Type 2 Achalasia) might not exhibit a strongly positive ANA, so its absence does not completely rule out the disease in atypical presentations.</t>
+          <t>Although antinuclear antibodies (ANA) are common in systemic sclerosis, CREST syndrome may display lower titers. The absence of a strong positive ANA can be seen in limited forms, thus not excluding the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is a non-specific finding and is not typically considered an integral component of the CREST syndrome with Type 2 Achalasia profile. Its presence does little to support the diagnosis and may merely reflect common comorbidities.</t>
+          <t>Hyperlipidemia is not typically associated with CREST syndrome or Type 2 Achalasia and may instead point to alternative or unrelated metabolic conditions, thereby arguing against the specific diagnosis under consideration.</t>
         </is>
       </c>
     </row>
